--- a/Relatorio-01.xlsx
+++ b/Relatorio-01.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Desktop\UFF\Projetos\R_Ladies_Niteroi\RLadiesNiteroi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C955B709-BF89-4E16-A60B-E22CD7A9EF57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CFA8C754-1D27-4460-A04B-ADFCDCE107E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Relatorio-1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Relatorio-1'!$A$1:$I$9</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="180">
   <si>
     <t>Nome</t>
   </si>
@@ -138,13 +140,448 @@
   </si>
   <si>
     <t>Medico</t>
+  </si>
+  <si>
+    <t>Fabio Sousa Lima</t>
+  </si>
+  <si>
+    <t>Luana Franco Pimenta</t>
+  </si>
+  <si>
+    <t>Creusa Maria Torres</t>
+  </si>
+  <si>
+    <t>Ana Renata Anton</t>
+  </si>
+  <si>
+    <t>Jorge Carlos Jones</t>
+  </si>
+  <si>
+    <t>Juan Fernando Santos</t>
+  </si>
+  <si>
+    <t>Juan Alberto Silva</t>
+  </si>
+  <si>
+    <t>Juan Franco Jones</t>
+  </si>
+  <si>
+    <t>Rebeca Santos Freitas</t>
+  </si>
+  <si>
+    <t>Mateus Silva Franco</t>
+  </si>
+  <si>
+    <t>Anna Julia Fausto</t>
+  </si>
+  <si>
+    <t>Ruivo</t>
+  </si>
+  <si>
+    <t>Estudante</t>
+  </si>
+  <si>
+    <t>João Barros Feliciano</t>
+  </si>
+  <si>
+    <t>Pablo Pimenta Torres</t>
+  </si>
+  <si>
+    <t>Rebeca Silva Santos</t>
+  </si>
+  <si>
+    <t>Jullya Jorge Pattinson</t>
+  </si>
+  <si>
+    <t>Keila Marinho Fontes</t>
+  </si>
+  <si>
+    <t>Gabriela Liz Galileu</t>
+  </si>
+  <si>
+    <t>Afonso Flores</t>
+  </si>
+  <si>
+    <t>Alceste Cuaresma</t>
+  </si>
+  <si>
+    <t>Aldo Chamusca</t>
+  </si>
+  <si>
+    <t>Anind Viveiros</t>
+  </si>
+  <si>
+    <t>Antero Hurtado</t>
+  </si>
+  <si>
+    <t>Arminda Curvelo</t>
+  </si>
+  <si>
+    <t>Artur Beiriz</t>
+  </si>
+  <si>
+    <t>Asi Carballo</t>
+  </si>
+  <si>
+    <t>Beatriz Assis</t>
+  </si>
+  <si>
+    <t>Bernardete Lustosa</t>
+  </si>
+  <si>
+    <t>Bernardino Guimaraens</t>
+  </si>
+  <si>
+    <t>Bráulio Monjardim</t>
+  </si>
+  <si>
+    <t>Carina Peña</t>
+  </si>
+  <si>
+    <t>Cassandra Coelho</t>
+  </si>
+  <si>
+    <t>Cassandra Queirós</t>
+  </si>
+  <si>
+    <t>Celeste Barreiro</t>
+  </si>
+  <si>
+    <t>Cesário Peres</t>
+  </si>
+  <si>
+    <t>Cid Dourado</t>
+  </si>
+  <si>
+    <t>Corina Parente</t>
+  </si>
+  <si>
+    <t>Cristóvão Damasceno</t>
+  </si>
+  <si>
+    <t>Deise Morgado</t>
+  </si>
+  <si>
+    <t>Denise Madruga</t>
+  </si>
+  <si>
+    <t>Elisabete Bocaiúva</t>
+  </si>
+  <si>
+    <t>Eva Freitas</t>
+  </si>
+  <si>
+    <t>Firmina Malta</t>
+  </si>
+  <si>
+    <t>Gabriel Carrillo</t>
+  </si>
+  <si>
+    <t>Gerardo Silveira dos Açores</t>
+  </si>
+  <si>
+    <t>Gláucia Landim</t>
+  </si>
+  <si>
+    <t>Graciano Vieyra</t>
+  </si>
+  <si>
+    <t>Gregório Marroquim</t>
+  </si>
+  <si>
+    <t>Guadalupe Valladares</t>
+  </si>
+  <si>
+    <t>Gustavo Caires</t>
+  </si>
+  <si>
+    <t>Iberê Aldea</t>
+  </si>
+  <si>
+    <t>Iva Horta</t>
+  </si>
+  <si>
+    <t>Jamari Fitas</t>
+  </si>
+  <si>
+    <t>Jandaíra Baranda</t>
+  </si>
+  <si>
+    <t>Luana Tigre</t>
+  </si>
+  <si>
+    <t>Luize Guedelha</t>
+  </si>
+  <si>
+    <t>Marcos Ferrão</t>
+  </si>
+  <si>
+    <t>Maurício Soto Mayor</t>
+  </si>
+  <si>
+    <t>Miguelina Carvajal</t>
+  </si>
+  <si>
+    <t>Odete Núñez</t>
+  </si>
+  <si>
+    <t>Oliveira Uchoa</t>
+  </si>
+  <si>
+    <t>Pascoal Zambujal</t>
+  </si>
+  <si>
+    <t>Polibe Gentil</t>
+  </si>
+  <si>
+    <t>Priscila Baião</t>
+  </si>
+  <si>
+    <t>Ramiro Marañón</t>
+  </si>
+  <si>
+    <t>Simeão Becerra</t>
+  </si>
+  <si>
+    <t>Godim Aragão</t>
+  </si>
+  <si>
+    <t>Abraão Malheiros</t>
+  </si>
+  <si>
+    <t>Almeno Pinheiro</t>
+  </si>
+  <si>
+    <t>Anselmo Mota</t>
+  </si>
+  <si>
+    <t>Caetano Pavía</t>
+  </si>
+  <si>
+    <t>Capitolina Figueira</t>
+  </si>
+  <si>
+    <t>Capitolino Rocha</t>
+  </si>
+  <si>
+    <t>Carlos Arantes</t>
+  </si>
+  <si>
+    <t>Cleiton Alburquerque</t>
+  </si>
+  <si>
+    <t>Daniel Braz</t>
+  </si>
+  <si>
+    <t>Dinis Villar</t>
+  </si>
+  <si>
+    <t>Domingas Villas Boas</t>
+  </si>
+  <si>
+    <t>Egas Villégas</t>
+  </si>
+  <si>
+    <t>Eloi Sequeira</t>
+  </si>
+  <si>
+    <t>Ernesto Velázquez</t>
+  </si>
+  <si>
+    <t>Fernão Lobo</t>
+  </si>
+  <si>
+    <t>Firmino Quinzeiro</t>
+  </si>
+  <si>
+    <t>Flávia Nascimento</t>
+  </si>
+  <si>
+    <t>Fulvio Rivas</t>
+  </si>
+  <si>
+    <t>Graça Parreira</t>
+  </si>
+  <si>
+    <t>Honorina Fuentes</t>
+  </si>
+  <si>
+    <t>Honório Vilariça</t>
+  </si>
+  <si>
+    <t>Jandaíra Valente</t>
+  </si>
+  <si>
+    <t>Joaquim Boga</t>
+  </si>
+  <si>
+    <t>Levi Colares</t>
+  </si>
+  <si>
+    <t>Magali Andrade</t>
+  </si>
+  <si>
+    <t>Mara Pinhal</t>
+  </si>
+  <si>
+    <t>Palo Quintella</t>
+  </si>
+  <si>
+    <t>Poliana Carvajal</t>
+  </si>
+  <si>
+    <t>Quirino Coelho</t>
+  </si>
+  <si>
+    <t>Raimundo Doutel</t>
+  </si>
+  <si>
+    <t>Raul Castelo</t>
+  </si>
+  <si>
+    <t>Rogério Pinto</t>
+  </si>
+  <si>
+    <t>Ruca Cardozo</t>
+  </si>
+  <si>
+    <t>Rómulo Paião</t>
+  </si>
+  <si>
+    <t>Silvana Parafita</t>
+  </si>
+  <si>
+    <t>Tomásia Nazário</t>
+  </si>
+  <si>
+    <t>Zubaida Castello Branco</t>
+  </si>
+  <si>
+    <t>Adelino Felipe</t>
+  </si>
+  <si>
+    <t>Alceste Igrejas</t>
+  </si>
+  <si>
+    <t>Aurélio Prado</t>
+  </si>
+  <si>
+    <t>Caetano Castelão</t>
+  </si>
+  <si>
+    <t>Emiliano Coello</t>
+  </si>
+  <si>
+    <t>Epaminondas Jesús</t>
+  </si>
+  <si>
+    <t>Feliciana Soares</t>
+  </si>
+  <si>
+    <t>Ginéculo Mourão</t>
+  </si>
+  <si>
+    <t>Iracema Quintero</t>
+  </si>
+  <si>
+    <t>Jamari Marmou</t>
+  </si>
+  <si>
+    <t>Judá Ribeiro</t>
+  </si>
+  <si>
+    <t>Lúcia Pérez</t>
+  </si>
+  <si>
+    <t>Mauro Higuera</t>
+  </si>
+  <si>
+    <t>Melinda Ávila</t>
+  </si>
+  <si>
+    <t>Rosalina Mascarenhas</t>
+  </si>
+  <si>
+    <t>Rufus Cambaúva</t>
+  </si>
+  <si>
+    <t>Sabino Penha</t>
+  </si>
+  <si>
+    <t>Viridiano Saldaña</t>
+  </si>
+  <si>
+    <t>Vânia Espargosa</t>
+  </si>
+  <si>
+    <t>Zélia Lage</t>
+  </si>
+  <si>
+    <t>Almerinda Palma</t>
+  </si>
+  <si>
+    <t>Celso Negrão</t>
+  </si>
+  <si>
+    <t>Cidália Soto</t>
+  </si>
+  <si>
+    <t>Cristóvão Gorjão</t>
+  </si>
+  <si>
+    <t>Cássia Paula</t>
+  </si>
+  <si>
+    <t>Diamantino Camacho</t>
+  </si>
+  <si>
+    <t>Délio Conceição</t>
+  </si>
+  <si>
+    <t>Eugénio Açores</t>
+  </si>
+  <si>
+    <t>Eugénio Vale</t>
+  </si>
+  <si>
+    <t>Gilberto Diegues</t>
+  </si>
+  <si>
+    <t>Ildefonso Carvalheiro</t>
+  </si>
+  <si>
+    <t>Ingrit Rosario</t>
+  </si>
+  <si>
+    <t>Jónatas Mendoça</t>
+  </si>
+  <si>
+    <t>Letícia Frade</t>
+  </si>
+  <si>
+    <t>Luís Matos</t>
+  </si>
+  <si>
+    <t>Léia Ornelas</t>
+  </si>
+  <si>
+    <t>Mônica Castelhano</t>
+  </si>
+  <si>
+    <t>Enia Pino</t>
+  </si>
+  <si>
+    <t>Isaque Sucupira</t>
+  </si>
+  <si>
+    <t>Xênia Pimienta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,12 +605,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF212529"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -185,8 +616,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,6 +638,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,29 +676,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -566,33 +1043,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A539EAA-99D4-4E19-98DB-1A4E9F10770F}">
-  <dimension ref="A1:I101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -604,24 +1081,24 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="3">
@@ -633,24 +1110,24 @@
       <c r="E2" s="3">
         <v>61</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="3">
@@ -662,24 +1139,24 @@
       <c r="E3" s="3">
         <v>72</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="3">
@@ -691,1141 +1168,2337 @@
       <c r="E4" s="3">
         <v>87</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="6">
         <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3">
+        <v>46</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="3"/>
+      <c r="F5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3">
+        <v>38</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="F6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3">
+        <v>29</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="F7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3">
+        <v>29</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="F8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3">
+        <v>32</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="F9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3">
+        <v>57</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="F10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3">
+        <v>18</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="F11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3">
+        <v>25</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3">
+        <v>78</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3">
+        <v>89</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+      <c r="A22" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
+      <c r="A27" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+      <c r="A28" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="A29" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="3">
+        <v>69</v>
+      </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
+      <c r="A30" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+      <c r="A31" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
+      <c r="A32" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
+      <c r="A33" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
+      <c r="A34" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
+      <c r="A35" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
+      <c r="A36" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
+      <c r="A37" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
+      <c r="A38" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
+      <c r="A39" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
+      <c r="A40" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
+      <c r="A41" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
+      <c r="A42" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="3">
+      <c r="B43" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="13">
         <v>26</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="13">
         <v>68</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="12">
         <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
+      <c r="A44" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
+      <c r="A45" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
+      <c r="A46" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
+      <c r="A47" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
+      <c r="A48" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
+      <c r="A49" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
+      <c r="A50" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
+      <c r="A51" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
+      <c r="A52" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
+      <c r="A53" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="3">
+        <v>34</v>
+      </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
+      <c r="A54" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
+      <c r="A55" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
+      <c r="A56" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
+      <c r="A57" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
+      <c r="A58" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" s="3">
+      <c r="B59" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="13">
         <v>30</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="13">
         <v>83</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F59" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="G59" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H59" s="3" t="s">
+      <c r="H59" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
+      <c r="A60" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
+      <c r="A61" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
+      <c r="A62" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
+      <c r="A63" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
+      <c r="A64" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
+      <c r="A65" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
+      <c r="A66" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
+      <c r="A67" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
+      <c r="A68" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
+      <c r="A69" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
+      <c r="A70" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
+      <c r="A71" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
+      <c r="A72" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
+      <c r="A73" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
+      <c r="A74" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
+      <c r="A75" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
+      <c r="A76" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
+      <c r="A77" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
+      <c r="A78" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
+      <c r="A79" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
+      <c r="A80" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
+      <c r="A81" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
+      <c r="A82" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
+      <c r="A83" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
+      <c r="A84" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
+      <c r="A85" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
+      <c r="A86" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
+      <c r="A87" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
+      <c r="A88" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
+      <c r="A89" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
+      <c r="A90" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
+      <c r="A91" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+    </row>
+    <row r="92" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C92" s="3">
+      <c r="B92" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" s="11">
         <v>28</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="11">
         <v>76</v>
       </c>
-      <c r="F92" s="3" t="s">
+      <c r="F92" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G92" s="3" t="s">
+      <c r="G92" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H92" s="5" t="s">
+      <c r="H92" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I92" s="3">
+      <c r="I92" s="10">
         <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
+      <c r="A93" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="3"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="6"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
+      <c r="A94" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
+      <c r="A95" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
+      <c r="A96" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
+      <c r="A97" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
+      <c r="A98" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
+      <c r="A99" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
+      <c r="A100" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
+      <c r="A101" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="6"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="6"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="6"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="6"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="6"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="6"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
+      <c r="I127" s="6"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="6"/>
+      <c r="I128" s="6"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
+      <c r="I131" s="6"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="6"/>
+      <c r="I132" s="6"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="6"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="6"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
+      <c r="I135" s="6"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="6"/>
+      <c r="I136" s="6"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
+      <c r="I137" s="6"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="6"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
+      <c r="I139" s="6"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="6"/>
+      <c r="I141" s="6"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="6"/>
+      <c r="I145" s="6"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="6"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="6"/>
+      <c r="I146" s="6"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="6"/>
+      <c r="I147" s="6"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="6"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="6"/>
+      <c r="G149" s="6"/>
+      <c r="H149" s="6"/>
+      <c r="I149" s="6"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="6"/>
+      <c r="G150" s="6"/>
+      <c r="H150" s="6"/>
+      <c r="I150" s="6"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151" s="17"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152" s="17"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153" s="17"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154" s="17"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155" s="17"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156" s="17"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157" s="17"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A158" s="17"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159" s="17"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160" s="17"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="17"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="17"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="17"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="17"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I9"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Relatorio-01.xlsx
+++ b/Relatorio-01.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Relatorio-1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Relatorio-1'!$A$1:$I$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Relatorio-1'!$A$1:$I$150</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="180">
   <si>
     <t>Nome</t>
   </si>
@@ -628,7 +628,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -644,6 +644,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,7 +682,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -727,6 +733,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1048,7 +1057,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B151" sqref="B151"/>
+      <selection pane="bottomLeft" activeCell="I152" sqref="I152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1235,8 +1244,12 @@
         <v>13</v>
       </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="H7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="6">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -1359,7 +1372,9 @@
       <c r="B14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3">
+        <v>27</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
@@ -1374,13 +1389,19 @@
       <c r="B15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3">
+        <v>33</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="H15" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
@@ -1389,7 +1410,9 @@
       <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3">
+        <v>20</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="6"/>
@@ -1404,7 +1427,9 @@
       <c r="B17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3">
+        <v>19</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="6"/>
@@ -1436,7 +1461,9 @@
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="3">
+        <v>45</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="6"/>
@@ -1451,7 +1478,9 @@
       <c r="B20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="3">
+        <v>76</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="6"/>
@@ -1466,7 +1495,9 @@
       <c r="B21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3">
+        <v>67</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="6"/>
@@ -1481,13 +1512,19 @@
       <c r="B22" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="3">
+        <v>23</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="H22" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="6">
+        <v>37</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
@@ -1496,7 +1533,9 @@
       <c r="B23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="3">
+        <v>25</v>
+      </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="6"/>
@@ -1511,7 +1550,9 @@
       <c r="B24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="3">
+        <v>27</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="6"/>
@@ -1526,7 +1567,9 @@
       <c r="B25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="3">
+        <v>29</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="6"/>
@@ -1541,7 +1584,9 @@
       <c r="B26" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="3">
+        <v>34</v>
+      </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="6"/>
@@ -1556,7 +1601,9 @@
       <c r="B27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="3">
+        <v>36</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="6"/>
@@ -1571,7 +1618,9 @@
       <c r="B28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="3">
+        <v>37</v>
+      </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="6"/>
@@ -1587,7 +1636,7 @@
         <v>17</v>
       </c>
       <c r="C29" s="3">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1603,7 +1652,9 @@
       <c r="B30" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="3">
+        <v>48</v>
+      </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="6"/>
@@ -1618,7 +1669,9 @@
       <c r="B31" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="3">
+        <v>41</v>
+      </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="6"/>
@@ -1633,7 +1686,9 @@
       <c r="B32" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="3"/>
+      <c r="C32" s="3">
+        <v>53</v>
+      </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="6"/>
@@ -1648,13 +1703,19 @@
       <c r="B33" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="3">
+        <v>57</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="H33" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="6">
+        <v>54</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
@@ -1663,7 +1724,9 @@
       <c r="B34" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="3">
+        <v>68</v>
+      </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="6"/>
@@ -1678,7 +1741,9 @@
       <c r="B35" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="3"/>
+      <c r="C35" s="3">
+        <v>90</v>
+      </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="6"/>
@@ -1693,7 +1758,9 @@
       <c r="B36" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="3">
+        <v>26</v>
+      </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="6"/>
@@ -1708,7 +1775,9 @@
       <c r="B37" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="3">
+        <v>45</v>
+      </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="6"/>
@@ -1723,7 +1792,9 @@
       <c r="B38" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="3"/>
+      <c r="C38" s="3">
+        <v>44</v>
+      </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="6"/>
@@ -1738,7 +1809,9 @@
       <c r="B39" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="C39" s="3">
+        <v>23</v>
+      </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="6"/>
@@ -1753,7 +1826,9 @@
       <c r="B40" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="3">
+        <v>26</v>
+      </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="6"/>
@@ -1768,7 +1843,9 @@
       <c r="B41" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="3"/>
+      <c r="C41" s="3">
+        <v>27</v>
+      </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="6"/>
@@ -1783,7 +1860,9 @@
       <c r="B42" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="3"/>
+      <c r="C42" s="3">
+        <v>34</v>
+      </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="6"/>
@@ -1827,7 +1906,9 @@
       <c r="B44" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="3"/>
+      <c r="C44" s="3">
+        <v>65</v>
+      </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="6"/>
@@ -1842,7 +1923,9 @@
       <c r="B45" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="3"/>
+      <c r="C45" s="3">
+        <v>76</v>
+      </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="6"/>
@@ -1857,7 +1940,9 @@
       <c r="B46" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="3"/>
+      <c r="C46" s="3">
+        <v>26</v>
+      </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="6"/>
@@ -1872,13 +1957,19 @@
       <c r="B47" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="3"/>
+      <c r="C47" s="3">
+        <v>21</v>
+      </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
+      <c r="H47" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
@@ -1887,7 +1978,9 @@
       <c r="B48" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="3"/>
+      <c r="C48" s="3">
+        <v>78</v>
+      </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="6"/>
@@ -1902,7 +1995,9 @@
       <c r="B49" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="3"/>
+      <c r="C49" s="3">
+        <v>45</v>
+      </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="6"/>
@@ -1917,7 +2012,9 @@
       <c r="B50" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="3"/>
+      <c r="C50" s="3">
+        <v>28</v>
+      </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="6"/>
@@ -1932,13 +2029,19 @@
       <c r="B51" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="3"/>
+      <c r="C51" s="3">
+        <v>30</v>
+      </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
+      <c r="H51" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" s="6">
+        <v>10</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="18" t="s">
@@ -1947,7 +2050,9 @@
       <c r="B52" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="3"/>
+      <c r="C52" s="3">
+        <v>28</v>
+      </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="6"/>
@@ -1979,7 +2084,9 @@
       <c r="B54" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="3"/>
+      <c r="C54" s="3">
+        <v>29</v>
+      </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="6"/>
@@ -1994,7 +2101,9 @@
       <c r="B55" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="3"/>
+      <c r="C55" s="3">
+        <v>30</v>
+      </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="6"/>
@@ -2009,7 +2118,9 @@
       <c r="B56" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="3"/>
+      <c r="C56" s="3">
+        <v>34</v>
+      </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="6"/>
@@ -2024,7 +2135,9 @@
       <c r="B57" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="3"/>
+      <c r="C57" s="3">
+        <v>33</v>
+      </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="6"/>
@@ -2039,7 +2152,9 @@
       <c r="B58" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="3"/>
+      <c r="C58" s="3">
+        <v>76</v>
+      </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="6"/>
@@ -2083,7 +2198,9 @@
       <c r="B60" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="3"/>
+      <c r="C60" s="3">
+        <v>45</v>
+      </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="6"/>
@@ -2098,7 +2215,9 @@
       <c r="B61" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C61" s="3"/>
+      <c r="C61" s="3">
+        <v>23</v>
+      </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="6"/>
@@ -2113,7 +2232,9 @@
       <c r="B62" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="3"/>
+      <c r="C62" s="3">
+        <v>25</v>
+      </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="6"/>
@@ -2128,13 +2249,19 @@
       <c r="B63" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="3"/>
+      <c r="C63" s="3">
+        <v>54</v>
+      </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
+      <c r="H63" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63" s="6">
+        <v>45</v>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="18" t="s">
@@ -2143,7 +2270,9 @@
       <c r="B64" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C64" s="3"/>
+      <c r="C64" s="3">
+        <v>26</v>
+      </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="6"/>
@@ -2158,7 +2287,9 @@
       <c r="B65" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="3"/>
+      <c r="C65" s="3">
+        <v>23</v>
+      </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="6"/>
@@ -2173,7 +2304,9 @@
       <c r="B66" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="3"/>
+      <c r="C66" s="3">
+        <v>22</v>
+      </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="6"/>
@@ -2188,7 +2321,9 @@
       <c r="B67" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C67" s="3"/>
+      <c r="C67" s="3">
+        <v>55</v>
+      </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="6"/>
@@ -2203,7 +2338,9 @@
       <c r="B68" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="3"/>
+      <c r="C68" s="3">
+        <v>56</v>
+      </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="6"/>
@@ -2218,7 +2355,9 @@
       <c r="B69" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C69" s="3"/>
+      <c r="C69" s="3">
+        <v>18</v>
+      </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="6"/>
@@ -2233,7 +2372,9 @@
       <c r="B70" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C70" s="3"/>
+      <c r="C70" s="3">
+        <v>30</v>
+      </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="6"/>
@@ -2248,13 +2389,19 @@
       <c r="B71" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C71" s="3"/>
+      <c r="C71" s="3">
+        <v>31</v>
+      </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
+      <c r="H71" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71" s="6">
+        <v>11</v>
+      </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="18" t="s">
@@ -2263,7 +2410,9 @@
       <c r="B72" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C72" s="3"/>
+      <c r="C72" s="3">
+        <v>45</v>
+      </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="6"/>
@@ -2278,7 +2427,9 @@
       <c r="B73" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C73" s="3"/>
+      <c r="C73" s="3">
+        <v>30</v>
+      </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="6"/>
@@ -2293,13 +2444,19 @@
       <c r="B74" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C74" s="3"/>
+      <c r="C74" s="3">
+        <v>77</v>
+      </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
+      <c r="H74" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" s="6">
+        <v>9</v>
+      </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="18" t="s">
@@ -2308,7 +2465,9 @@
       <c r="B75" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C75" s="3"/>
+      <c r="C75" s="3">
+        <v>56</v>
+      </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="6"/>
@@ -2323,7 +2482,9 @@
       <c r="B76" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C76" s="3"/>
+      <c r="C76" s="3">
+        <v>30</v>
+      </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="6"/>
@@ -2338,7 +2499,9 @@
       <c r="B77" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C77" s="3"/>
+      <c r="C77" s="3">
+        <v>18</v>
+      </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="6"/>
@@ -2353,13 +2516,19 @@
       <c r="B78" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C78" s="3"/>
+      <c r="C78" s="3">
+        <v>26</v>
+      </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
+      <c r="H78" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I78" s="6">
+        <v>32</v>
+      </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="18" t="s">
@@ -2368,7 +2537,9 @@
       <c r="B79" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C79" s="3"/>
+      <c r="C79" s="3">
+        <v>32</v>
+      </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="6"/>
@@ -2383,7 +2554,9 @@
       <c r="B80" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C80" s="3"/>
+      <c r="C80" s="3">
+        <v>30</v>
+      </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="6"/>
@@ -2398,7 +2571,9 @@
       <c r="B81" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="3"/>
+      <c r="C81" s="3">
+        <v>28</v>
+      </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="6"/>
@@ -2413,7 +2588,9 @@
       <c r="B82" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C82" s="3"/>
+      <c r="C82" s="3">
+        <v>19</v>
+      </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="6"/>
@@ -2428,7 +2605,9 @@
       <c r="B83" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C83" s="3"/>
+      <c r="C83" s="3">
+        <v>18</v>
+      </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="6"/>
@@ -2443,7 +2622,9 @@
       <c r="B84" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C84" s="3"/>
+      <c r="C84" s="3">
+        <v>27</v>
+      </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="6"/>
@@ -2458,7 +2639,9 @@
       <c r="B85" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C85" s="3"/>
+      <c r="C85" s="3">
+        <v>43</v>
+      </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="6"/>
@@ -2473,7 +2656,9 @@
       <c r="B86" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C86" s="3"/>
+      <c r="C86" s="3">
+        <v>50</v>
+      </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="6"/>
@@ -2488,7 +2673,9 @@
       <c r="B87" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C87" s="3"/>
+      <c r="C87" s="3">
+        <v>52</v>
+      </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" s="6"/>
@@ -2503,7 +2690,9 @@
       <c r="B88" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C88" s="3"/>
+      <c r="C88" s="3">
+        <v>50</v>
+      </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="6"/>
@@ -2518,7 +2707,9 @@
       <c r="B89" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C89" s="3"/>
+      <c r="C89" s="3">
+        <v>24</v>
+      </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" s="6"/>
@@ -2533,7 +2724,9 @@
       <c r="B90" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C90" s="3"/>
+      <c r="C90" s="3">
+        <v>23</v>
+      </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="6"/>
@@ -2548,7 +2741,9 @@
       <c r="B91" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C91" s="3"/>
+      <c r="C91" s="3">
+        <v>87</v>
+      </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="6"/>
@@ -2592,7 +2787,9 @@
       <c r="B93" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C93" s="3"/>
+      <c r="C93" s="3">
+        <v>31</v>
+      </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="6"/>
@@ -2607,7 +2804,9 @@
       <c r="B94" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C94" s="3"/>
+      <c r="C94" s="3">
+        <v>45</v>
+      </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
       <c r="F94" s="6"/>
@@ -2622,7 +2821,9 @@
       <c r="B95" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C95" s="3"/>
+      <c r="C95" s="3">
+        <v>67</v>
+      </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="6"/>
@@ -2637,7 +2838,9 @@
       <c r="B96" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C96" s="3"/>
+      <c r="C96" s="3">
+        <v>80</v>
+      </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="6"/>
@@ -2652,7 +2855,9 @@
       <c r="B97" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C97" s="3"/>
+      <c r="C97" s="3">
+        <v>54</v>
+      </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
       <c r="F97" s="6"/>
@@ -2667,7 +2872,9 @@
       <c r="B98" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C98" s="3"/>
+      <c r="C98" s="3">
+        <v>79</v>
+      </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
       <c r="F98" s="6"/>
@@ -2682,7 +2889,9 @@
       <c r="B99" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C99" s="3"/>
+      <c r="C99" s="3">
+        <v>44</v>
+      </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
       <c r="F99" s="6"/>
@@ -2697,7 +2906,9 @@
       <c r="B100" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C100" s="3"/>
+      <c r="C100" s="3">
+        <v>22</v>
+      </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
       <c r="F100" s="6"/>
@@ -2712,7 +2923,9 @@
       <c r="B101" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C101" s="3"/>
+      <c r="C101" s="3">
+        <v>30</v>
+      </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
       <c r="F101" s="6"/>
@@ -2727,7 +2940,9 @@
       <c r="B102" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C102" s="3"/>
+      <c r="C102" s="3">
+        <v>34</v>
+      </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" s="6"/>
@@ -2742,7 +2957,9 @@
       <c r="B103" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C103" s="3"/>
+      <c r="C103" s="3">
+        <v>65</v>
+      </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
       <c r="F103" s="6"/>
@@ -2757,7 +2974,9 @@
       <c r="B104" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C104" s="3"/>
+      <c r="C104" s="3">
+        <v>26</v>
+      </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
       <c r="F104" s="6"/>
@@ -2772,7 +2991,9 @@
       <c r="B105" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C105" s="3"/>
+      <c r="C105" s="3">
+        <v>19</v>
+      </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
       <c r="F105" s="6"/>
@@ -2787,7 +3008,9 @@
       <c r="B106" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C106" s="3"/>
+      <c r="C106" s="3">
+        <v>20</v>
+      </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" s="6"/>
@@ -2802,7 +3025,9 @@
       <c r="B107" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C107" s="3"/>
+      <c r="C107" s="3">
+        <v>56</v>
+      </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" s="6"/>
@@ -2817,13 +3042,19 @@
       <c r="B108" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C108" s="3"/>
+      <c r="C108" s="3">
+        <v>57</v>
+      </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
-      <c r="H108" s="6"/>
-      <c r="I108" s="6"/>
+      <c r="H108" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I108" s="6">
+        <v>19</v>
+      </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="18" t="s">
@@ -2832,7 +3063,9 @@
       <c r="B109" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C109" s="3"/>
+      <c r="C109" s="3">
+        <v>19</v>
+      </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
       <c r="F109" s="6"/>
@@ -2847,7 +3080,9 @@
       <c r="B110" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C110" s="3"/>
+      <c r="C110" s="3">
+        <v>44</v>
+      </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" s="6"/>
@@ -2862,7 +3097,9 @@
       <c r="B111" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C111" s="3"/>
+      <c r="C111" s="3">
+        <v>23</v>
+      </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="6"/>
@@ -2877,7 +3114,9 @@
       <c r="B112" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C112" s="3"/>
+      <c r="C112" s="3">
+        <v>30</v>
+      </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" s="6"/>
@@ -2892,7 +3131,9 @@
       <c r="B113" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C113" s="3"/>
+      <c r="C113" s="3">
+        <v>27</v>
+      </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" s="6"/>
@@ -2907,7 +3148,9 @@
       <c r="B114" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C114" s="3"/>
+      <c r="C114" s="3">
+        <v>19</v>
+      </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" s="6"/>
@@ -2922,7 +3165,9 @@
       <c r="B115" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C115" s="3"/>
+      <c r="C115" s="3">
+        <v>89</v>
+      </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
       <c r="F115" s="6"/>
@@ -2937,7 +3182,9 @@
       <c r="B116" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C116" s="3"/>
+      <c r="C116" s="3">
+        <v>56</v>
+      </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
       <c r="F116" s="6"/>
@@ -2952,7 +3199,9 @@
       <c r="B117" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C117" s="3"/>
+      <c r="C117" s="3">
+        <v>91</v>
+      </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
       <c r="F117" s="6"/>
@@ -2967,7 +3216,9 @@
       <c r="B118" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C118" s="3"/>
+      <c r="C118" s="3">
+        <v>55</v>
+      </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
       <c r="F118" s="6"/>
@@ -2982,7 +3233,9 @@
       <c r="B119" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C119" s="3"/>
+      <c r="C119" s="3">
+        <v>19</v>
+      </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
       <c r="F119" s="6"/>
@@ -2997,7 +3250,9 @@
       <c r="B120" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C120" s="3"/>
+      <c r="C120" s="3">
+        <v>27</v>
+      </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
       <c r="F120" s="6"/>
@@ -3012,7 +3267,9 @@
       <c r="B121" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C121" s="3"/>
+      <c r="C121" s="3">
+        <v>43</v>
+      </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
       <c r="F121" s="6"/>
@@ -3027,7 +3284,9 @@
       <c r="B122" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C122" s="3"/>
+      <c r="C122" s="3">
+        <v>27</v>
+      </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
       <c r="F122" s="6"/>
@@ -3042,7 +3301,9 @@
       <c r="B123" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C123" s="3"/>
+      <c r="C123" s="3">
+        <v>20</v>
+      </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" s="6"/>
@@ -3057,7 +3318,9 @@
       <c r="B124" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C124" s="3"/>
+      <c r="C124" s="3">
+        <v>45</v>
+      </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="6"/>
@@ -3072,7 +3335,9 @@
       <c r="B125" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C125" s="3"/>
+      <c r="C125" s="3">
+        <v>76</v>
+      </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
       <c r="F125" s="6"/>
@@ -3087,7 +3352,9 @@
       <c r="B126" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C126" s="3"/>
+      <c r="C126" s="3">
+        <v>48</v>
+      </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
       <c r="F126" s="6"/>
@@ -3102,7 +3369,9 @@
       <c r="B127" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C127" s="3"/>
+      <c r="C127" s="3">
+        <v>38</v>
+      </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
       <c r="F127" s="6"/>
@@ -3117,7 +3386,9 @@
       <c r="B128" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C128" s="3"/>
+      <c r="C128" s="3">
+        <v>27</v>
+      </c>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
       <c r="F128" s="6"/>
@@ -3132,7 +3403,9 @@
       <c r="B129" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C129" s="3"/>
+      <c r="C129" s="3">
+        <v>34</v>
+      </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
       <c r="F129" s="6"/>
@@ -3147,13 +3420,19 @@
       <c r="B130" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C130" s="3"/>
+      <c r="C130" s="3">
+        <v>36</v>
+      </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
-      <c r="H130" s="6"/>
-      <c r="I130" s="6"/>
+      <c r="H130" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I130" s="6">
+        <v>7</v>
+      </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="18" t="s">
@@ -3162,7 +3441,9 @@
       <c r="B131" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C131" s="3"/>
+      <c r="C131" s="3">
+        <v>33</v>
+      </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
       <c r="F131" s="6"/>
@@ -3177,7 +3458,9 @@
       <c r="B132" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C132" s="3"/>
+      <c r="C132" s="3">
+        <v>29</v>
+      </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
       <c r="F132" s="6"/>
@@ -3192,7 +3475,9 @@
       <c r="B133" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C133" s="3"/>
+      <c r="C133" s="3">
+        <v>65</v>
+      </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
       <c r="F133" s="6"/>
@@ -3207,7 +3492,9 @@
       <c r="B134" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C134" s="3"/>
+      <c r="C134" s="3">
+        <v>21</v>
+      </c>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
       <c r="F134" s="6"/>
@@ -3222,7 +3509,9 @@
       <c r="B135" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C135" s="3"/>
+      <c r="C135" s="3">
+        <v>34</v>
+      </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
       <c r="F135" s="6"/>
@@ -3237,7 +3526,9 @@
       <c r="B136" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C136" s="3"/>
+      <c r="C136" s="3">
+        <v>81</v>
+      </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
       <c r="F136" s="6"/>
@@ -3252,7 +3543,9 @@
       <c r="B137" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C137" s="3"/>
+      <c r="C137" s="3">
+        <v>45</v>
+      </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
       <c r="F137" s="6"/>
@@ -3267,7 +3560,9 @@
       <c r="B138" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C138" s="3"/>
+      <c r="C138" s="3">
+        <v>22</v>
+      </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
       <c r="F138" s="6"/>
@@ -3282,7 +3577,9 @@
       <c r="B139" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C139" s="3"/>
+      <c r="C139" s="3">
+        <v>45</v>
+      </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
       <c r="F139" s="6"/>
@@ -3297,7 +3594,9 @@
       <c r="B140" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C140" s="3"/>
+      <c r="C140" s="3">
+        <v>23</v>
+      </c>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
       <c r="F140" s="6"/>
@@ -3312,7 +3611,9 @@
       <c r="B141" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C141" s="3"/>
+      <c r="C141" s="3">
+        <v>30</v>
+      </c>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
       <c r="F141" s="6"/>
@@ -3327,13 +3628,19 @@
       <c r="B142" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C142" s="3"/>
+      <c r="C142" s="3">
+        <v>21</v>
+      </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
-      <c r="H142" s="6"/>
-      <c r="I142" s="6"/>
+      <c r="H142" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I142" s="6">
+        <v>15</v>
+      </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="18" t="s">
@@ -3342,7 +3649,9 @@
       <c r="B143" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C143" s="3"/>
+      <c r="C143" s="3">
+        <v>65</v>
+      </c>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
       <c r="F143" s="6"/>
@@ -3357,7 +3666,9 @@
       <c r="B144" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C144" s="3"/>
+      <c r="C144" s="3">
+        <v>20</v>
+      </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
       <c r="F144" s="6"/>
@@ -3372,7 +3683,9 @@
       <c r="B145" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C145" s="3"/>
+      <c r="C145" s="3">
+        <v>76</v>
+      </c>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
       <c r="F145" s="6"/>
@@ -3387,7 +3700,9 @@
       <c r="B146" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C146" s="3"/>
+      <c r="C146" s="3">
+        <v>30</v>
+      </c>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
       <c r="F146" s="6"/>
@@ -3402,7 +3717,9 @@
       <c r="B147" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C147" s="3"/>
+      <c r="C147" s="3">
+        <v>34</v>
+      </c>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
       <c r="F147" s="6"/>
@@ -3417,7 +3734,9 @@
       <c r="B148" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C148" s="3"/>
+      <c r="C148" s="3">
+        <v>20</v>
+      </c>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
       <c r="F148" s="6"/>
@@ -3432,7 +3751,9 @@
       <c r="B149" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C149" s="3"/>
+      <c r="C149" s="3">
+        <v>33</v>
+      </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
       <c r="F149" s="6"/>
@@ -3447,7 +3768,9 @@
       <c r="B150" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C150" s="3"/>
+      <c r="C150" s="3">
+        <v>20</v>
+      </c>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
       <c r="F150" s="6"/>
@@ -3498,7 +3821,7 @@
       <c r="A164" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I9"/>
+  <autoFilter ref="A1:I150"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Relatorio-01.xlsx
+++ b/Relatorio-01.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="208">
   <si>
     <t>Nome</t>
   </si>
@@ -575,6 +575,90 @@
   </si>
   <si>
     <t>Xênia Pimienta</t>
+  </si>
+  <si>
+    <t>1.76</t>
+  </si>
+  <si>
+    <t>1.71</t>
+  </si>
+  <si>
+    <t>1.90</t>
+  </si>
+  <si>
+    <t>1.46</t>
+  </si>
+  <si>
+    <t>1.88</t>
+  </si>
+  <si>
+    <t>1.67</t>
+  </si>
+  <si>
+    <t>1.68</t>
+  </si>
+  <si>
+    <t>1.87</t>
+  </si>
+  <si>
+    <t>1.60</t>
+  </si>
+  <si>
+    <t>1.63</t>
+  </si>
+  <si>
+    <t>1.70</t>
+  </si>
+  <si>
+    <t>1.74</t>
+  </si>
+  <si>
+    <t>2.03</t>
+  </si>
+  <si>
+    <t>1.77</t>
+  </si>
+  <si>
+    <t>1.92</t>
+  </si>
+  <si>
+    <t>1.78</t>
+  </si>
+  <si>
+    <t>1.82</t>
+  </si>
+  <si>
+    <t>1.73</t>
+  </si>
+  <si>
+    <t>1.59</t>
+  </si>
+  <si>
+    <t>2.01</t>
+  </si>
+  <si>
+    <t>1.83</t>
+  </si>
+  <si>
+    <t>1.66</t>
+  </si>
+  <si>
+    <t>1.99</t>
+  </si>
+  <si>
+    <t>1.72</t>
+  </si>
+  <si>
+    <t>1.80</t>
+  </si>
+  <si>
+    <t>1.62</t>
+  </si>
+  <si>
+    <t>1.98</t>
+  </si>
+  <si>
+    <t>Cannhoto</t>
   </si>
 </sst>
 </file>
@@ -682,7 +766,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -737,6 +821,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1056,8 +1143,8 @@
   <dimension ref="A1:I164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I152" sqref="I152"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1200,12 +1287,18 @@
       <c r="C5" s="3">
         <v>46</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E5" s="3">
+        <v>92</v>
+      </c>
       <c r="F5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H5" s="15"/>
       <c r="I5" s="6"/>
     </row>
@@ -1219,12 +1312,18 @@
       <c r="C6" s="3">
         <v>38</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3">
+        <v>49</v>
+      </c>
       <c r="F6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
@@ -1238,12 +1337,18 @@
       <c r="C7" s="3">
         <v>29</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="3">
+        <v>65</v>
+      </c>
       <c r="F7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H7" s="20" t="s">
         <v>15</v>
       </c>
@@ -1261,12 +1366,18 @@
       <c r="C8" s="3">
         <v>29</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="3">
+        <v>73</v>
+      </c>
       <c r="F8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
@@ -1280,12 +1391,18 @@
       <c r="C9" s="3">
         <v>32</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9" s="3">
+        <v>88</v>
+      </c>
       <c r="F9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
@@ -1299,12 +1416,18 @@
       <c r="C10" s="3">
         <v>57</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" s="3">
+        <v>50</v>
+      </c>
       <c r="F10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
     </row>
@@ -1318,12 +1441,18 @@
       <c r="C11" s="3">
         <v>18</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="3">
+        <v>79</v>
+      </c>
       <c r="F11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H11" s="6" t="s">
         <v>47</v>
       </c>
@@ -1341,10 +1470,16 @@
       <c r="C12" s="3">
         <v>25</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="3">
+        <v>63</v>
+      </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
@@ -1358,10 +1493,16 @@
       <c r="C13" s="3">
         <v>78</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E13" s="3">
+        <v>62</v>
+      </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="G13" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
@@ -1375,10 +1516,16 @@
       <c r="C14" s="3">
         <v>27</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14" s="3">
+        <v>79</v>
+      </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="G14" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
     </row>
@@ -1392,10 +1539,16 @@
       <c r="C15" s="3">
         <v>33</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="3">
+        <v>72</v>
+      </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="G15" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H15" s="20" t="s">
         <v>15</v>
       </c>
@@ -1413,10 +1566,16 @@
       <c r="C16" s="3">
         <v>20</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" s="3">
+        <v>54</v>
+      </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
     </row>
@@ -1430,10 +1589,16 @@
       <c r="C17" s="3">
         <v>19</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E17" s="3">
+        <v>56</v>
+      </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
     </row>
@@ -1447,10 +1612,16 @@
       <c r="C18" s="3">
         <v>89</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E18" s="3">
+        <v>68</v>
+      </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="G18" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
@@ -1464,10 +1635,16 @@
       <c r="C19" s="3">
         <v>45</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E19" s="3">
+        <v>65</v>
+      </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
     </row>
@@ -1481,10 +1658,16 @@
       <c r="C20" s="3">
         <v>76</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="3">
+        <v>45</v>
+      </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="G20" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
     </row>
@@ -1498,10 +1681,16 @@
       <c r="C21" s="3">
         <v>67</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="3">
+        <v>65</v>
+      </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="G21" s="6" t="s">
+        <v>207</v>
+      </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
     </row>
@@ -1515,10 +1704,16 @@
       <c r="C22" s="3">
         <v>23</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="3">
+        <v>87</v>
+      </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="G22" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H22" s="20" t="s">
         <v>15</v>
       </c>
@@ -1536,10 +1731,16 @@
       <c r="C23" s="3">
         <v>25</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E23" s="3">
+        <v>95</v>
+      </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="G23" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
     </row>
@@ -1553,10 +1754,16 @@
       <c r="C24" s="3">
         <v>27</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="3">
+        <v>48</v>
+      </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="G24" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
     </row>
@@ -1570,10 +1777,16 @@
       <c r="C25" s="3">
         <v>29</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E25" s="3">
+        <v>62</v>
+      </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="G25" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
     </row>
@@ -1587,10 +1800,16 @@
       <c r="C26" s="3">
         <v>34</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E26" s="3">
+        <v>72</v>
+      </c>
       <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="G26" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
     </row>
@@ -1604,10 +1823,16 @@
       <c r="C27" s="3">
         <v>36</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E27" s="3">
+        <v>105</v>
+      </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="G27" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
@@ -1621,10 +1846,16 @@
       <c r="C28" s="3">
         <v>37</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E28" s="3">
+        <v>62</v>
+      </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="G28" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
     </row>
@@ -1638,10 +1869,16 @@
       <c r="C29" s="3">
         <v>39</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E29" s="3">
+        <v>77</v>
+      </c>
       <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="G29" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>
@@ -1655,10 +1892,16 @@
       <c r="C30" s="3">
         <v>48</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E30" s="3">
+        <v>65</v>
+      </c>
       <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+      <c r="G30" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
     </row>
@@ -1672,10 +1915,16 @@
       <c r="C31" s="3">
         <v>41</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E31" s="3">
+        <v>63</v>
+      </c>
       <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="G31" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
@@ -1689,10 +1938,16 @@
       <c r="C32" s="3">
         <v>53</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E32" s="3">
+        <v>80</v>
+      </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="G32" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
     </row>
@@ -1706,10 +1961,16 @@
       <c r="C33" s="3">
         <v>57</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="D33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="3">
+        <v>78</v>
+      </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="G33" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H33" s="20" t="s">
         <v>15</v>
       </c>
@@ -1727,10 +1988,16 @@
       <c r="C34" s="3">
         <v>68</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E34" s="3">
+        <v>65</v>
+      </c>
       <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="G34" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
     </row>
@@ -1744,10 +2011,16 @@
       <c r="C35" s="3">
         <v>90</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="D35" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E35" s="3">
+        <v>60</v>
+      </c>
       <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="G35" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
     </row>
@@ -1761,10 +2034,16 @@
       <c r="C36" s="3">
         <v>26</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E36" s="3">
+        <v>67</v>
+      </c>
       <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="G36" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
@@ -1778,10 +2057,16 @@
       <c r="C37" s="3">
         <v>45</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E37" s="3">
+        <v>70</v>
+      </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="G37" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
     </row>
@@ -1795,10 +2080,16 @@
       <c r="C38" s="3">
         <v>44</v>
       </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E38" s="3">
+        <v>107</v>
+      </c>
       <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="G38" s="6" t="s">
+        <v>207</v>
+      </c>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
@@ -1812,10 +2103,16 @@
       <c r="C39" s="3">
         <v>23</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
+      <c r="D39" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E39" s="3">
+        <v>64</v>
+      </c>
       <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+      <c r="G39" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
     </row>
@@ -1829,10 +2126,16 @@
       <c r="C40" s="3">
         <v>26</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+      <c r="D40" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E40" s="3">
+        <v>88</v>
+      </c>
       <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
+      <c r="G40" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
     </row>
@@ -1846,10 +2149,16 @@
       <c r="C41" s="3">
         <v>27</v>
       </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
+      <c r="D41" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E41" s="3">
+        <v>74</v>
+      </c>
       <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
+      <c r="G41" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
     </row>
@@ -1863,10 +2172,16 @@
       <c r="C42" s="3">
         <v>34</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="3">
+        <v>53</v>
+      </c>
       <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
+      <c r="G42" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
     </row>
@@ -1909,10 +2224,14 @@
       <c r="C44" s="3">
         <v>65</v>
       </c>
-      <c r="D44" s="3"/>
+      <c r="D44" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="E44" s="3"/>
       <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
+      <c r="G44" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
     </row>
@@ -1926,10 +2245,14 @@
       <c r="C45" s="3">
         <v>76</v>
       </c>
-      <c r="D45" s="3"/>
+      <c r="D45" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="E45" s="3"/>
       <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
+      <c r="G45" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
     </row>
@@ -1943,10 +2266,14 @@
       <c r="C46" s="3">
         <v>26</v>
       </c>
-      <c r="D46" s="3"/>
+      <c r="D46" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="E46" s="3"/>
       <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
+      <c r="G46" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
     </row>
@@ -1960,10 +2287,14 @@
       <c r="C47" s="3">
         <v>21</v>
       </c>
-      <c r="D47" s="3"/>
+      <c r="D47" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="E47" s="3"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
+      <c r="G47" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H47" s="20" t="s">
         <v>15</v>
       </c>
@@ -1981,10 +2312,14 @@
       <c r="C48" s="3">
         <v>78</v>
       </c>
-      <c r="D48" s="3"/>
+      <c r="D48" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="E48" s="3"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
+      <c r="G48" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
     </row>
@@ -1998,10 +2333,14 @@
       <c r="C49" s="3">
         <v>45</v>
       </c>
-      <c r="D49" s="3"/>
+      <c r="D49" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="E49" s="3"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
+      <c r="G49" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
     </row>
@@ -2015,10 +2354,14 @@
       <c r="C50" s="3">
         <v>28</v>
       </c>
-      <c r="D50" s="3"/>
+      <c r="D50" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="E50" s="3"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
+      <c r="G50" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
     </row>
@@ -2032,10 +2375,14 @@
       <c r="C51" s="3">
         <v>30</v>
       </c>
-      <c r="D51" s="3"/>
+      <c r="D51" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="E51" s="3"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
+      <c r="G51" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H51" s="20" t="s">
         <v>15</v>
       </c>
@@ -2053,10 +2400,14 @@
       <c r="C52" s="3">
         <v>28</v>
       </c>
-      <c r="D52" s="3"/>
+      <c r="D52" s="3" t="s">
+        <v>194</v>
+      </c>
       <c r="E52" s="3"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
+      <c r="G52" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
@@ -2070,10 +2421,14 @@
       <c r="C53" s="3">
         <v>34</v>
       </c>
-      <c r="D53" s="3"/>
+      <c r="D53" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="E53" s="3"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
+      <c r="G53" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
     </row>
@@ -2087,10 +2442,14 @@
       <c r="C54" s="3">
         <v>29</v>
       </c>
-      <c r="D54" s="3"/>
+      <c r="D54" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="E54" s="3"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
+      <c r="G54" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
@@ -2104,10 +2463,14 @@
       <c r="C55" s="3">
         <v>30</v>
       </c>
-      <c r="D55" s="3"/>
+      <c r="D55" s="3" t="s">
+        <v>196</v>
+      </c>
       <c r="E55" s="3"/>
       <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
+      <c r="G55" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
@@ -2121,10 +2484,14 @@
       <c r="C56" s="3">
         <v>34</v>
       </c>
-      <c r="D56" s="3"/>
+      <c r="D56" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="E56" s="3"/>
       <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
+      <c r="G56" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
     </row>
@@ -2138,10 +2505,14 @@
       <c r="C57" s="3">
         <v>33</v>
       </c>
-      <c r="D57" s="3"/>
+      <c r="D57" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E57" s="3"/>
       <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
+      <c r="G57" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
     </row>
@@ -2155,10 +2526,14 @@
       <c r="C58" s="3">
         <v>76</v>
       </c>
-      <c r="D58" s="3"/>
+      <c r="D58" s="3" t="s">
+        <v>198</v>
+      </c>
       <c r="E58" s="3"/>
       <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
+      <c r="G58" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
     </row>
@@ -2201,10 +2576,14 @@
       <c r="C60" s="3">
         <v>45</v>
       </c>
-      <c r="D60" s="3"/>
+      <c r="D60" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="E60" s="3"/>
       <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
+      <c r="G60" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
     </row>
@@ -2218,10 +2597,14 @@
       <c r="C61" s="3">
         <v>23</v>
       </c>
-      <c r="D61" s="3"/>
+      <c r="D61" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="E61" s="3"/>
       <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
+      <c r="G61" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
@@ -2235,10 +2618,14 @@
       <c r="C62" s="3">
         <v>25</v>
       </c>
-      <c r="D62" s="3"/>
+      <c r="D62" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="E62" s="3"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
+      <c r="G62" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
     </row>
@@ -2252,10 +2639,14 @@
       <c r="C63" s="3">
         <v>54</v>
       </c>
-      <c r="D63" s="3"/>
+      <c r="D63" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="E63" s="3"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
+      <c r="G63" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H63" s="20" t="s">
         <v>15</v>
       </c>
@@ -2273,10 +2664,14 @@
       <c r="C64" s="3">
         <v>26</v>
       </c>
-      <c r="D64" s="3"/>
+      <c r="D64" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="E64" s="3"/>
       <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
+      <c r="G64" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
     </row>
@@ -2290,10 +2685,14 @@
       <c r="C65" s="3">
         <v>23</v>
       </c>
-      <c r="D65" s="3"/>
+      <c r="D65" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="E65" s="3"/>
       <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
+      <c r="G65" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
     </row>
@@ -2307,10 +2706,14 @@
       <c r="C66" s="3">
         <v>22</v>
       </c>
-      <c r="D66" s="3"/>
+      <c r="D66" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="E66" s="3"/>
       <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
+      <c r="G66" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
     </row>
@@ -2324,10 +2727,14 @@
       <c r="C67" s="3">
         <v>55</v>
       </c>
-      <c r="D67" s="3"/>
+      <c r="D67" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="E67" s="3"/>
       <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
+      <c r="G67" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
     </row>
@@ -2341,10 +2748,14 @@
       <c r="C68" s="3">
         <v>56</v>
       </c>
-      <c r="D68" s="3"/>
+      <c r="D68" s="3" t="s">
+        <v>194</v>
+      </c>
       <c r="E68" s="3"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
+      <c r="G68" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
     </row>
@@ -2358,10 +2769,14 @@
       <c r="C69" s="3">
         <v>18</v>
       </c>
-      <c r="D69" s="3"/>
+      <c r="D69" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="E69" s="3"/>
       <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
+      <c r="G69" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
     </row>
@@ -2375,10 +2790,14 @@
       <c r="C70" s="3">
         <v>30</v>
       </c>
-      <c r="D70" s="3"/>
+      <c r="D70" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="E70" s="3"/>
       <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
+      <c r="G70" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
     </row>
@@ -2392,10 +2811,14 @@
       <c r="C71" s="3">
         <v>31</v>
       </c>
-      <c r="D71" s="3"/>
+      <c r="D71" s="3" t="s">
+        <v>196</v>
+      </c>
       <c r="E71" s="3"/>
       <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
+      <c r="G71" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H71" s="20" t="s">
         <v>15</v>
       </c>
@@ -2413,10 +2836,14 @@
       <c r="C72" s="3">
         <v>45</v>
       </c>
-      <c r="D72" s="3"/>
+      <c r="D72" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="E72" s="3"/>
       <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
+      <c r="G72" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
     </row>
@@ -2430,10 +2857,14 @@
       <c r="C73" s="3">
         <v>30</v>
       </c>
-      <c r="D73" s="3"/>
+      <c r="D73" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E73" s="3"/>
       <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
+      <c r="G73" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
     </row>
@@ -2447,10 +2878,14 @@
       <c r="C74" s="3">
         <v>77</v>
       </c>
-      <c r="D74" s="3"/>
+      <c r="D74" s="3" t="s">
+        <v>198</v>
+      </c>
       <c r="E74" s="3"/>
       <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
+      <c r="G74" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H74" s="20" t="s">
         <v>15</v>
       </c>
@@ -2468,10 +2903,14 @@
       <c r="C75" s="3">
         <v>56</v>
       </c>
-      <c r="D75" s="3"/>
+      <c r="D75" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="E75" s="3"/>
       <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
+      <c r="G75" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
     </row>
@@ -2485,10 +2924,14 @@
       <c r="C76" s="3">
         <v>30</v>
       </c>
-      <c r="D76" s="3"/>
+      <c r="D76" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="E76" s="3"/>
       <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
+      <c r="G76" s="6" t="s">
+        <v>207</v>
+      </c>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
     </row>
@@ -2502,10 +2945,14 @@
       <c r="C77" s="3">
         <v>18</v>
       </c>
-      <c r="D77" s="3"/>
+      <c r="D77" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="E77" s="3"/>
       <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
+      <c r="G77" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
     </row>
@@ -2519,10 +2966,14 @@
       <c r="C78" s="3">
         <v>26</v>
       </c>
-      <c r="D78" s="3"/>
+      <c r="D78" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="E78" s="3"/>
       <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
+      <c r="G78" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H78" s="20" t="s">
         <v>15</v>
       </c>
@@ -2540,10 +2991,14 @@
       <c r="C79" s="3">
         <v>32</v>
       </c>
-      <c r="D79" s="3"/>
+      <c r="D79" s="3" t="s">
+        <v>183</v>
+      </c>
       <c r="E79" s="3"/>
       <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
+      <c r="G79" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
     </row>
@@ -2557,10 +3012,14 @@
       <c r="C80" s="3">
         <v>30</v>
       </c>
-      <c r="D80" s="3"/>
+      <c r="D80" s="3" t="s">
+        <v>184</v>
+      </c>
       <c r="E80" s="3"/>
       <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
+      <c r="G80" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
     </row>
@@ -2574,10 +3033,14 @@
       <c r="C81" s="3">
         <v>28</v>
       </c>
-      <c r="D81" s="3"/>
+      <c r="D81" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="E81" s="3"/>
       <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
+      <c r="G81" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
     </row>
@@ -2591,10 +3054,14 @@
       <c r="C82" s="3">
         <v>19</v>
       </c>
-      <c r="D82" s="3"/>
+      <c r="D82" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="E82" s="3"/>
       <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
+      <c r="G82" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
     </row>
@@ -2608,10 +3075,14 @@
       <c r="C83" s="3">
         <v>18</v>
       </c>
-      <c r="D83" s="3"/>
+      <c r="D83" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="E83" s="3"/>
       <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
+      <c r="G83" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
     </row>
@@ -2625,10 +3096,14 @@
       <c r="C84" s="3">
         <v>27</v>
       </c>
-      <c r="D84" s="3"/>
+      <c r="D84" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="E84" s="3"/>
       <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
+      <c r="G84" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
     </row>
@@ -2642,10 +3117,14 @@
       <c r="C85" s="3">
         <v>43</v>
       </c>
-      <c r="D85" s="3"/>
+      <c r="D85" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="E85" s="3"/>
       <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
+      <c r="G85" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
     </row>
@@ -2659,10 +3138,14 @@
       <c r="C86" s="3">
         <v>50</v>
       </c>
-      <c r="D86" s="3"/>
+      <c r="D86" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="E86" s="3"/>
       <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
+      <c r="G86" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
     </row>
@@ -2676,10 +3159,14 @@
       <c r="C87" s="3">
         <v>52</v>
       </c>
-      <c r="D87" s="3"/>
+      <c r="D87" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="E87" s="3"/>
       <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
+      <c r="G87" s="6" t="s">
+        <v>207</v>
+      </c>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
     </row>
@@ -2693,10 +3180,14 @@
       <c r="C88" s="3">
         <v>50</v>
       </c>
-      <c r="D88" s="3"/>
+      <c r="D88" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="E88" s="3"/>
       <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
+      <c r="G88" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
     </row>
@@ -2710,10 +3201,14 @@
       <c r="C89" s="3">
         <v>24</v>
       </c>
-      <c r="D89" s="3"/>
+      <c r="D89" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="E89" s="3"/>
       <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
+      <c r="G89" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
     </row>
@@ -2727,10 +3222,14 @@
       <c r="C90" s="3">
         <v>23</v>
       </c>
-      <c r="D90" s="3"/>
+      <c r="D90" s="3" t="s">
+        <v>199</v>
+      </c>
       <c r="E90" s="3"/>
       <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
+      <c r="G90" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
     </row>
@@ -2744,10 +3243,14 @@
       <c r="C91" s="3">
         <v>87</v>
       </c>
-      <c r="D91" s="3"/>
+      <c r="D91" s="3" t="s">
+        <v>201</v>
+      </c>
       <c r="E91" s="3"/>
       <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
+      <c r="G91" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
     </row>
@@ -2790,10 +3293,14 @@
       <c r="C93" s="3">
         <v>31</v>
       </c>
-      <c r="D93" s="3"/>
+      <c r="D93" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="E93" s="3"/>
       <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
+      <c r="G93" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H93" s="16"/>
       <c r="I93" s="6"/>
     </row>
@@ -2807,10 +3314,14 @@
       <c r="C94" s="3">
         <v>45</v>
       </c>
-      <c r="D94" s="3"/>
+      <c r="D94" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="E94" s="3"/>
       <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
+      <c r="G94" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
     </row>
@@ -2824,10 +3335,14 @@
       <c r="C95" s="3">
         <v>67</v>
       </c>
-      <c r="D95" s="3"/>
+      <c r="D95" s="3" t="s">
+        <v>194</v>
+      </c>
       <c r="E95" s="3"/>
       <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
+      <c r="G95" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
     </row>
@@ -2841,10 +3356,14 @@
       <c r="C96" s="3">
         <v>80</v>
       </c>
-      <c r="D96" s="3"/>
+      <c r="D96" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="E96" s="3"/>
       <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
+      <c r="G96" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
     </row>
@@ -2858,10 +3377,14 @@
       <c r="C97" s="3">
         <v>54</v>
       </c>
-      <c r="D97" s="3"/>
+      <c r="D97" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="E97" s="3"/>
       <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
+      <c r="G97" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
     </row>
@@ -2875,10 +3398,14 @@
       <c r="C98" s="3">
         <v>79</v>
       </c>
-      <c r="D98" s="3"/>
+      <c r="D98" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="E98" s="3"/>
       <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
+      <c r="G98" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H98" s="6"/>
       <c r="I98" s="6"/>
     </row>
@@ -2892,10 +3419,14 @@
       <c r="C99" s="3">
         <v>44</v>
       </c>
-      <c r="D99" s="3"/>
+      <c r="D99" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="E99" s="3"/>
       <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
+      <c r="G99" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
     </row>
@@ -2909,10 +3440,14 @@
       <c r="C100" s="3">
         <v>22</v>
       </c>
-      <c r="D100" s="3"/>
+      <c r="D100" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="E100" s="3"/>
       <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
+      <c r="G100" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
     </row>
@@ -2926,10 +3461,14 @@
       <c r="C101" s="3">
         <v>30</v>
       </c>
-      <c r="D101" s="3"/>
+      <c r="D101" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="E101" s="3"/>
       <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
+      <c r="G101" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
     </row>
@@ -2943,10 +3482,14 @@
       <c r="C102" s="3">
         <v>34</v>
       </c>
-      <c r="D102" s="3"/>
+      <c r="D102" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="E102" s="3"/>
       <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
+      <c r="G102" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
     </row>
@@ -2960,10 +3503,14 @@
       <c r="C103" s="3">
         <v>65</v>
       </c>
-      <c r="D103" s="3"/>
+      <c r="D103" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="E103" s="3"/>
       <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
+      <c r="G103" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
     </row>
@@ -2977,10 +3524,14 @@
       <c r="C104" s="3">
         <v>26</v>
       </c>
-      <c r="D104" s="3"/>
+      <c r="D104" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="E104" s="3"/>
       <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
+      <c r="G104" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H104" s="6"/>
       <c r="I104" s="6"/>
     </row>
@@ -2994,10 +3545,14 @@
       <c r="C105" s="3">
         <v>19</v>
       </c>
-      <c r="D105" s="3"/>
+      <c r="D105" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="E105" s="3"/>
       <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
+      <c r="G105" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H105" s="6"/>
       <c r="I105" s="6"/>
     </row>
@@ -3011,10 +3566,14 @@
       <c r="C106" s="3">
         <v>20</v>
       </c>
-      <c r="D106" s="3"/>
+      <c r="D106" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="E106" s="3"/>
       <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
+      <c r="G106" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H106" s="6"/>
       <c r="I106" s="6"/>
     </row>
@@ -3028,10 +3587,14 @@
       <c r="C107" s="3">
         <v>56</v>
       </c>
-      <c r="D107" s="3"/>
+      <c r="D107" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E107" s="3"/>
       <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
+      <c r="G107" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H107" s="6"/>
       <c r="I107" s="6"/>
     </row>
@@ -3045,10 +3608,14 @@
       <c r="C108" s="3">
         <v>57</v>
       </c>
-      <c r="D108" s="3"/>
+      <c r="D108" s="3" t="s">
+        <v>198</v>
+      </c>
       <c r="E108" s="3"/>
       <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
+      <c r="G108" s="6" t="s">
+        <v>207</v>
+      </c>
       <c r="H108" s="20" t="s">
         <v>15</v>
       </c>
@@ -3066,10 +3633,14 @@
       <c r="C109" s="3">
         <v>19</v>
       </c>
-      <c r="D109" s="3"/>
+      <c r="D109" s="21" t="s">
+        <v>18</v>
+      </c>
       <c r="E109" s="3"/>
       <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
+      <c r="G109" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H109" s="6"/>
       <c r="I109" s="6"/>
     </row>
@@ -3083,10 +3654,14 @@
       <c r="C110" s="3">
         <v>44</v>
       </c>
-      <c r="D110" s="3"/>
+      <c r="D110" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="E110" s="3"/>
       <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
+      <c r="G110" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H110" s="6"/>
       <c r="I110" s="6"/>
     </row>
@@ -3100,10 +3675,14 @@
       <c r="C111" s="3">
         <v>23</v>
       </c>
-      <c r="D111" s="3"/>
+      <c r="D111" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="E111" s="3"/>
       <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
+      <c r="G111" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H111" s="6"/>
       <c r="I111" s="6"/>
     </row>
@@ -3117,10 +3696,14 @@
       <c r="C112" s="3">
         <v>30</v>
       </c>
-      <c r="D112" s="3"/>
+      <c r="D112" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="E112" s="3"/>
       <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
+      <c r="G112" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H112" s="6"/>
       <c r="I112" s="6"/>
     </row>
@@ -3134,10 +3717,14 @@
       <c r="C113" s="3">
         <v>27</v>
       </c>
-      <c r="D113" s="3"/>
+      <c r="D113" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="E113" s="3"/>
       <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
+      <c r="G113" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H113" s="6"/>
       <c r="I113" s="6"/>
     </row>
@@ -3151,10 +3738,14 @@
       <c r="C114" s="3">
         <v>19</v>
       </c>
-      <c r="D114" s="3"/>
+      <c r="D114" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="E114" s="3"/>
       <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
+      <c r="G114" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H114" s="6"/>
       <c r="I114" s="6"/>
     </row>
@@ -3168,10 +3759,14 @@
       <c r="C115" s="3">
         <v>89</v>
       </c>
-      <c r="D115" s="3"/>
+      <c r="D115" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="E115" s="3"/>
       <c r="F115" s="6"/>
-      <c r="G115" s="6"/>
+      <c r="G115" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H115" s="6"/>
       <c r="I115" s="6"/>
     </row>
@@ -3185,10 +3780,14 @@
       <c r="C116" s="3">
         <v>56</v>
       </c>
-      <c r="D116" s="3"/>
+      <c r="D116" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="E116" s="3"/>
       <c r="F116" s="6"/>
-      <c r="G116" s="6"/>
+      <c r="G116" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H116" s="6"/>
       <c r="I116" s="6"/>
     </row>
@@ -3202,10 +3801,14 @@
       <c r="C117" s="3">
         <v>91</v>
       </c>
-      <c r="D117" s="3"/>
+      <c r="D117" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="E117" s="3"/>
       <c r="F117" s="6"/>
-      <c r="G117" s="6"/>
+      <c r="G117" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H117" s="6"/>
       <c r="I117" s="6"/>
     </row>
@@ -3219,10 +3822,14 @@
       <c r="C118" s="3">
         <v>55</v>
       </c>
-      <c r="D118" s="3"/>
+      <c r="D118" s="3" t="s">
+        <v>194</v>
+      </c>
       <c r="E118" s="3"/>
       <c r="F118" s="6"/>
-      <c r="G118" s="6"/>
+      <c r="G118" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H118" s="6"/>
       <c r="I118" s="6"/>
     </row>
@@ -3236,10 +3843,14 @@
       <c r="C119" s="3">
         <v>19</v>
       </c>
-      <c r="D119" s="3"/>
+      <c r="D119" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="E119" s="3"/>
       <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
+      <c r="G119" s="6" t="s">
+        <v>207</v>
+      </c>
       <c r="H119" s="6"/>
       <c r="I119" s="6"/>
     </row>
@@ -3253,10 +3864,14 @@
       <c r="C120" s="3">
         <v>27</v>
       </c>
-      <c r="D120" s="3"/>
+      <c r="D120" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="E120" s="3"/>
       <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
+      <c r="G120" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H120" s="6"/>
       <c r="I120" s="6"/>
     </row>
@@ -3270,10 +3885,14 @@
       <c r="C121" s="3">
         <v>43</v>
       </c>
-      <c r="D121" s="3"/>
+      <c r="D121" s="3" t="s">
+        <v>196</v>
+      </c>
       <c r="E121" s="3"/>
       <c r="F121" s="6"/>
-      <c r="G121" s="6"/>
+      <c r="G121" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H121" s="6"/>
       <c r="I121" s="6"/>
     </row>
@@ -3287,10 +3906,14 @@
       <c r="C122" s="3">
         <v>27</v>
       </c>
-      <c r="D122" s="3"/>
+      <c r="D122" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="E122" s="3"/>
       <c r="F122" s="6"/>
-      <c r="G122" s="6"/>
+      <c r="G122" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H122" s="6"/>
       <c r="I122" s="6"/>
     </row>
@@ -3304,10 +3927,14 @@
       <c r="C123" s="3">
         <v>20</v>
       </c>
-      <c r="D123" s="3"/>
+      <c r="D123" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E123" s="3"/>
       <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
+      <c r="G123" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H123" s="6"/>
       <c r="I123" s="6"/>
     </row>
@@ -3321,10 +3948,14 @@
       <c r="C124" s="3">
         <v>45</v>
       </c>
-      <c r="D124" s="3"/>
+      <c r="D124" s="3" t="s">
+        <v>203</v>
+      </c>
       <c r="E124" s="3"/>
       <c r="F124" s="6"/>
-      <c r="G124" s="6"/>
+      <c r="G124" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H124" s="6"/>
       <c r="I124" s="6"/>
     </row>
@@ -3338,10 +3969,14 @@
       <c r="C125" s="3">
         <v>76</v>
       </c>
-      <c r="D125" s="3"/>
+      <c r="D125" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="E125" s="3"/>
       <c r="F125" s="6"/>
-      <c r="G125" s="6"/>
+      <c r="G125" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H125" s="6"/>
       <c r="I125" s="6"/>
     </row>
@@ -3355,10 +3990,14 @@
       <c r="C126" s="3">
         <v>48</v>
       </c>
-      <c r="D126" s="3"/>
+      <c r="D126" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="E126" s="3"/>
       <c r="F126" s="6"/>
-      <c r="G126" s="6"/>
+      <c r="G126" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H126" s="6"/>
       <c r="I126" s="6"/>
     </row>
@@ -3372,10 +4011,14 @@
       <c r="C127" s="3">
         <v>38</v>
       </c>
-      <c r="D127" s="3"/>
+      <c r="D127" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="E127" s="3"/>
       <c r="F127" s="6"/>
-      <c r="G127" s="6"/>
+      <c r="G127" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H127" s="6"/>
       <c r="I127" s="6"/>
     </row>
@@ -3389,10 +4032,14 @@
       <c r="C128" s="3">
         <v>27</v>
       </c>
-      <c r="D128" s="3"/>
+      <c r="D128" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="E128" s="3"/>
       <c r="F128" s="6"/>
-      <c r="G128" s="6"/>
+      <c r="G128" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H128" s="6"/>
       <c r="I128" s="6"/>
     </row>
@@ -3406,10 +4053,14 @@
       <c r="C129" s="3">
         <v>34</v>
       </c>
-      <c r="D129" s="3"/>
+      <c r="D129" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="E129" s="3"/>
       <c r="F129" s="6"/>
-      <c r="G129" s="6"/>
+      <c r="G129" s="6" t="s">
+        <v>207</v>
+      </c>
       <c r="H129" s="6"/>
       <c r="I129" s="6"/>
     </row>
@@ -3423,10 +4074,14 @@
       <c r="C130" s="3">
         <v>36</v>
       </c>
-      <c r="D130" s="3"/>
+      <c r="D130" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="E130" s="3"/>
       <c r="F130" s="6"/>
-      <c r="G130" s="6"/>
+      <c r="G130" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H130" s="20" t="s">
         <v>15</v>
       </c>
@@ -3444,10 +4099,14 @@
       <c r="C131" s="3">
         <v>33</v>
       </c>
-      <c r="D131" s="3"/>
+      <c r="D131" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="E131" s="3"/>
       <c r="F131" s="6"/>
-      <c r="G131" s="6"/>
+      <c r="G131" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H131" s="6"/>
       <c r="I131" s="6"/>
     </row>
@@ -3461,10 +4120,14 @@
       <c r="C132" s="3">
         <v>29</v>
       </c>
-      <c r="D132" s="3"/>
+      <c r="D132" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="E132" s="3"/>
       <c r="F132" s="6"/>
-      <c r="G132" s="6"/>
+      <c r="G132" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H132" s="6"/>
       <c r="I132" s="6"/>
     </row>
@@ -3478,10 +4141,14 @@
       <c r="C133" s="3">
         <v>65</v>
       </c>
-      <c r="D133" s="3"/>
+      <c r="D133" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="E133" s="3"/>
       <c r="F133" s="6"/>
-      <c r="G133" s="6"/>
+      <c r="G133" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H133" s="6"/>
       <c r="I133" s="6"/>
     </row>
@@ -3495,10 +4162,14 @@
       <c r="C134" s="3">
         <v>21</v>
       </c>
-      <c r="D134" s="3"/>
+      <c r="D134" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="E134" s="3"/>
       <c r="F134" s="6"/>
-      <c r="G134" s="6"/>
+      <c r="G134" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H134" s="6"/>
       <c r="I134" s="6"/>
     </row>
@@ -3512,10 +4183,14 @@
       <c r="C135" s="3">
         <v>34</v>
       </c>
-      <c r="D135" s="3"/>
+      <c r="D135" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="E135" s="3"/>
       <c r="F135" s="6"/>
-      <c r="G135" s="6"/>
+      <c r="G135" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H135" s="6"/>
       <c r="I135" s="6"/>
     </row>
@@ -3529,10 +4204,14 @@
       <c r="C136" s="3">
         <v>81</v>
       </c>
-      <c r="D136" s="3"/>
+      <c r="D136" s="3" t="s">
+        <v>194</v>
+      </c>
       <c r="E136" s="3"/>
       <c r="F136" s="6"/>
-      <c r="G136" s="6"/>
+      <c r="G136" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H136" s="6"/>
       <c r="I136" s="6"/>
     </row>
@@ -3546,10 +4225,14 @@
       <c r="C137" s="3">
         <v>45</v>
       </c>
-      <c r="D137" s="3"/>
+      <c r="D137" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="E137" s="3"/>
       <c r="F137" s="6"/>
-      <c r="G137" s="6"/>
+      <c r="G137" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H137" s="6"/>
       <c r="I137" s="6"/>
     </row>
@@ -3563,10 +4246,14 @@
       <c r="C138" s="3">
         <v>22</v>
       </c>
-      <c r="D138" s="3"/>
+      <c r="D138" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="E138" s="3"/>
       <c r="F138" s="6"/>
-      <c r="G138" s="6"/>
+      <c r="G138" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H138" s="6"/>
       <c r="I138" s="6"/>
     </row>
@@ -3580,10 +4267,14 @@
       <c r="C139" s="3">
         <v>45</v>
       </c>
-      <c r="D139" s="3"/>
+      <c r="D139" s="3" t="s">
+        <v>196</v>
+      </c>
       <c r="E139" s="3"/>
       <c r="F139" s="6"/>
-      <c r="G139" s="6"/>
+      <c r="G139" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H139" s="6"/>
       <c r="I139" s="6"/>
     </row>
@@ -3597,10 +4288,14 @@
       <c r="C140" s="3">
         <v>23</v>
       </c>
-      <c r="D140" s="3"/>
+      <c r="D140" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="E140" s="3"/>
       <c r="F140" s="6"/>
-      <c r="G140" s="6"/>
+      <c r="G140" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H140" s="6"/>
       <c r="I140" s="6"/>
     </row>
@@ -3614,10 +4309,14 @@
       <c r="C141" s="3">
         <v>30</v>
       </c>
-      <c r="D141" s="3"/>
+      <c r="D141" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E141" s="3"/>
       <c r="F141" s="6"/>
-      <c r="G141" s="6"/>
+      <c r="G141" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H141" s="6"/>
       <c r="I141" s="6"/>
     </row>
@@ -3631,10 +4330,14 @@
       <c r="C142" s="3">
         <v>21</v>
       </c>
-      <c r="D142" s="3"/>
+      <c r="D142" s="3" t="s">
+        <v>198</v>
+      </c>
       <c r="E142" s="3"/>
       <c r="F142" s="6"/>
-      <c r="G142" s="6"/>
+      <c r="G142" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H142" s="20" t="s">
         <v>15</v>
       </c>
@@ -3652,10 +4355,14 @@
       <c r="C143" s="3">
         <v>65</v>
       </c>
-      <c r="D143" s="3"/>
+      <c r="D143" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="E143" s="3"/>
       <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
+      <c r="G143" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H143" s="6"/>
       <c r="I143" s="6"/>
     </row>
@@ -3669,10 +4376,14 @@
       <c r="C144" s="3">
         <v>20</v>
       </c>
-      <c r="D144" s="3"/>
+      <c r="D144" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="E144" s="3"/>
       <c r="F144" s="6"/>
-      <c r="G144" s="6"/>
+      <c r="G144" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H144" s="6"/>
       <c r="I144" s="6"/>
     </row>
@@ -3686,10 +4397,14 @@
       <c r="C145" s="3">
         <v>76</v>
       </c>
-      <c r="D145" s="3"/>
+      <c r="D145" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="E145" s="3"/>
       <c r="F145" s="6"/>
-      <c r="G145" s="6"/>
+      <c r="G145" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H145" s="6"/>
       <c r="I145" s="6"/>
     </row>
@@ -3703,10 +4418,14 @@
       <c r="C146" s="3">
         <v>30</v>
       </c>
-      <c r="D146" s="3"/>
+      <c r="D146" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="E146" s="3"/>
       <c r="F146" s="6"/>
-      <c r="G146" s="6"/>
+      <c r="G146" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H146" s="6"/>
       <c r="I146" s="6"/>
     </row>
@@ -3720,10 +4439,14 @@
       <c r="C147" s="3">
         <v>34</v>
       </c>
-      <c r="D147" s="3"/>
+      <c r="D147" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="E147" s="3"/>
       <c r="F147" s="6"/>
-      <c r="G147" s="6"/>
+      <c r="G147" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H147" s="6"/>
       <c r="I147" s="6"/>
     </row>
@@ -3737,10 +4460,14 @@
       <c r="C148" s="3">
         <v>20</v>
       </c>
-      <c r="D148" s="3"/>
+      <c r="D148" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="E148" s="3"/>
       <c r="F148" s="6"/>
-      <c r="G148" s="6"/>
+      <c r="G148" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H148" s="6"/>
       <c r="I148" s="6"/>
     </row>
@@ -3754,10 +4481,14 @@
       <c r="C149" s="3">
         <v>33</v>
       </c>
-      <c r="D149" s="3"/>
+      <c r="D149" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="E149" s="3"/>
       <c r="F149" s="6"/>
-      <c r="G149" s="6"/>
+      <c r="G149" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H149" s="6"/>
       <c r="I149" s="6"/>
     </row>
@@ -3771,15 +4502,20 @@
       <c r="C150" s="3">
         <v>20</v>
       </c>
-      <c r="D150" s="3"/>
+      <c r="D150" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E150" s="3"/>
       <c r="F150" s="6"/>
-      <c r="G150" s="6"/>
+      <c r="G150" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H150" s="6"/>
       <c r="I150" s="6"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="17"/>
+      <c r="G151" s="19"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="17"/>
